--- a/Check.xlsx
+++ b/Check.xlsx
@@ -447,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -505,7 +505,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="hair"/>
       <right style="hair"/>
       <top/>
       <bottom style="hair"/>
@@ -516,6 +516,13 @@
       <right style="hair"/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -544,7 +551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,6 +629,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -757,7 +768,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,10 +2272,10 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="20" t="s">
+      <c r="C46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="6"/>
@@ -2290,34 +2301,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3288,7 +3272,7 @@
     <row r="1015" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1016" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1017" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1018" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
@@ -3297,10 +3281,10 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="A31:A44"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C2:D44 D46 C47:D47" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C2:D44 D46" type="list">
       <formula1>"High,Medium,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3337,368 +3321,368 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="25"/>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="25"/>
+      <c r="C3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25"/>
+      <c r="C4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="28" t="s">
+      <c r="C19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="28" t="s">
+      <c r="C25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="32"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="32"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
